--- a/sources/case/Add_Position.xlsx
+++ b/sources/case/Add_Position.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>organization</t>
   </si>
   <si>
-    <t>流程1</t>
-  </si>
-  <si>
     <t>${addDepartment.uuid}</t>
   </si>
   <si>
@@ -126,15 +123,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>流程2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>岗位2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/hr/v1/formrecords?form=position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -502,7 +503,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -514,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -567,7 +568,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -587,7 +588,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -599,7 +600,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -615,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -658,12 +659,12 @@
         <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
@@ -675,10 +676,10 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -687,12 +688,12 @@
         <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -704,19 +705,19 @@
         <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Add_Position.xlsx
+++ b/sources/case/Add_Position.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>CaseID</t>
   </si>
@@ -77,65 +77,83 @@
     <t>name</t>
   </si>
   <si>
-    <t>岗位1</t>
-  </si>
-  <si>
     <t>reporting_position_ID</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>is_deleted</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>${addDepartment.uuid}</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>Add_Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Position_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add_Position_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/hr/v1/formrecords?form=position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_2</t>
+  </si>
+  <si>
     <t>reporting_position</t>
-  </si>
-  <si>
-    <t>is_deleted</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>organization</t>
-  </si>
-  <si>
-    <t>${addDepartment.uuid}</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>created</t>
-  </si>
-  <si>
-    <t>Add_Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Position_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Add_Position_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岗位2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/hr/v1/formrecords?form=position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>position_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reporting_position_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +486,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,7 +521,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -515,7 +533,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -532,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -542,7 +560,7 @@
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,21 +575,21 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -580,15 +598,15 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -600,10 +618,10 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -616,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,9 +644,9 @@
     <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -638,16 +656,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
@@ -656,68 +674,68 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/Add_Position.xlsx
+++ b/sources/case/Add_Position.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>headcount</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>organization_ID</t>
   </si>
   <si>
@@ -154,6 +151,10 @@
   </si>
   <si>
     <t>reporting_position_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!Int1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +522,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -533,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -550,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -575,53 +576,53 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -656,86 +657,86 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
